--- a/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.58329014141752</v>
+        <v>25.80041439670676</v>
       </c>
       <c r="C2">
-        <v>20.21386320737972</v>
+        <v>19.1131314204399</v>
       </c>
       <c r="D2">
-        <v>4.118308946840803</v>
+        <v>3.86163379409621</v>
       </c>
       <c r="E2">
-        <v>12.49435766332039</v>
+        <v>30.31257991758111</v>
       </c>
       <c r="F2">
-        <v>39.54634411489915</v>
+        <v>38.68981317089198</v>
       </c>
       <c r="I2">
-        <v>24.62347894840596</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.97690611193222</v>
       </c>
       <c r="L2">
-        <v>16.91851706910891</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12.5319739497398</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.74460063656575</v>
+        <v>23.89146575648628</v>
       </c>
       <c r="C3">
-        <v>18.74842532202145</v>
+        <v>17.70263042491466</v>
       </c>
       <c r="D3">
-        <v>4.128881494110331</v>
+        <v>3.899243137657312</v>
       </c>
       <c r="E3">
-        <v>11.55605769192035</v>
+        <v>27.97669031143275</v>
       </c>
       <c r="F3">
-        <v>37.2289129142129</v>
+        <v>36.42571892276603</v>
       </c>
       <c r="I3">
-        <v>23.57185031009633</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.29315569517046</v>
       </c>
       <c r="L3">
-        <v>15.67785838757581</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>12.70412467518605</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56096861753748</v>
+        <v>22.66750163857048</v>
       </c>
       <c r="C4">
-        <v>17.80696790361847</v>
+        <v>16.79927025235109</v>
       </c>
       <c r="D4">
-        <v>4.140656651432876</v>
+        <v>3.927322483419627</v>
       </c>
       <c r="E4">
-        <v>10.95573304159933</v>
+        <v>26.49163652290056</v>
       </c>
       <c r="F4">
-        <v>35.79162306226236</v>
+        <v>35.02412051046089</v>
       </c>
       <c r="I4">
-        <v>22.93927460171383</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.21351078888206</v>
       </c>
       <c r="L4">
-        <v>14.88273331295463</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>12.81590516989515</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.0645568006862</v>
+        <v>22.15527991128348</v>
       </c>
       <c r="C5">
-        <v>17.41254933317929</v>
+        <v>16.42141676577605</v>
       </c>
       <c r="D5">
-        <v>4.146652022422017</v>
+        <v>3.939873010152112</v>
       </c>
       <c r="E5">
-        <v>10.70479402977478</v>
+        <v>25.87287135478122</v>
       </c>
       <c r="F5">
-        <v>35.20254018732506</v>
+        <v>34.45020570774015</v>
       </c>
       <c r="I5">
-        <v>22.68480694870502</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.76164269008437</v>
       </c>
       <c r="L5">
-        <v>14.5500575763289</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>12.86288695851007</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98126907370141</v>
+        <v>22.06940278997741</v>
       </c>
       <c r="C6">
-        <v>17.34639817390298</v>
+        <v>16.35807757574314</v>
       </c>
       <c r="D6">
-        <v>4.147716225319331</v>
+        <v>3.942020060820418</v>
       </c>
       <c r="E6">
-        <v>10.66273926964591</v>
+        <v>25.7692827963246</v>
       </c>
       <c r="F6">
-        <v>35.10452988499274</v>
+        <v>34.35474856982125</v>
       </c>
       <c r="I6">
-        <v>22.64275397426353</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.6858808848931</v>
       </c>
       <c r="L6">
-        <v>14.49428685246669</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>12.87077206629022</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55433122256753</v>
+        <v>22.66064858340492</v>
       </c>
       <c r="C7">
-        <v>17.80169259526863</v>
+        <v>16.79421420292248</v>
       </c>
       <c r="D7">
-        <v>4.140732825869089</v>
+        <v>3.927487435843782</v>
       </c>
       <c r="E7">
-        <v>10.95237457637453</v>
+        <v>26.48334768931838</v>
       </c>
       <c r="F7">
-        <v>35.78369170944188</v>
+        <v>35.01639133852222</v>
       </c>
       <c r="I7">
-        <v>22.93582930497767</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.20746541562028</v>
       </c>
       <c r="L7">
-        <v>14.87828211581576</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>12.81653310956976</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.96045186751724</v>
+        <v>25.15271328992852</v>
       </c>
       <c r="C8">
-        <v>19.71704761657517</v>
+        <v>18.63431337322441</v>
       </c>
       <c r="D8">
-        <v>4.120774488383288</v>
+        <v>3.873471594760209</v>
       </c>
       <c r="E8">
-        <v>12.17571907347396</v>
+        <v>29.51718502186498</v>
       </c>
       <c r="F8">
-        <v>38.75036684330377</v>
+        <v>37.91154080061564</v>
       </c>
       <c r="I8">
-        <v>24.258143392884</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.4056140638119</v>
       </c>
       <c r="L8">
-        <v>16.49749125200118</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>12.59000521731167</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.26142475475955</v>
+        <v>29.64937945168049</v>
       </c>
       <c r="C9">
-        <v>23.15695978760474</v>
+        <v>21.96467908495076</v>
       </c>
       <c r="D9">
-        <v>4.130200267221777</v>
+        <v>3.814997018949621</v>
       </c>
       <c r="E9">
-        <v>14.39363083815579</v>
+        <v>35.10676284857906</v>
       </c>
       <c r="F9">
-        <v>44.45319338566117</v>
+        <v>43.5037645769168</v>
       </c>
       <c r="I9">
-        <v>26.95816377402374</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>26.37246567706089</v>
       </c>
       <c r="L9">
-        <v>19.4217302965326</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.19948429912531</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.19286743130041</v>
+        <v>32.75047743741845</v>
       </c>
       <c r="C10">
-        <v>25.51483396982815</v>
+        <v>24.27173129937919</v>
       </c>
       <c r="D10">
-        <v>4.177163442430234</v>
+        <v>3.814342439010869</v>
       </c>
       <c r="E10">
-        <v>15.93048323937684</v>
+        <v>39.06792353898398</v>
       </c>
       <c r="F10">
-        <v>48.66984635579171</v>
+        <v>47.76105409324398</v>
       </c>
       <c r="I10">
-        <v>29.01736529854642</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>29.11003351519641</v>
       </c>
       <c r="L10">
-        <v>21.4390597695048</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>11.95496070761942</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.48378248034965</v>
+        <v>34.12727506646566</v>
       </c>
       <c r="C11">
-        <v>26.55696076437265</v>
+        <v>25.29937298591763</v>
       </c>
       <c r="D11">
-        <v>4.209930521777465</v>
+        <v>3.827067130602675</v>
       </c>
       <c r="E11">
-        <v>16.61434430081362</v>
+        <v>40.86011606114519</v>
       </c>
       <c r="F11">
-        <v>50.66589839236335</v>
+        <v>49.75015621709858</v>
       </c>
       <c r="I11">
-        <v>29.97506009792067</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>30.32623002567803</v>
       </c>
       <c r="L11">
-        <v>22.33426482085006</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>11.85585729170535</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.96718697753638</v>
+        <v>34.64481972494101</v>
       </c>
       <c r="C12">
-        <v>26.94783580543985</v>
+        <v>25.68627341602746</v>
       </c>
       <c r="D12">
-        <v>4.224241635162905</v>
+        <v>3.834162176491883</v>
       </c>
       <c r="E12">
-        <v>16.87160173554192</v>
+        <v>41.53976204346342</v>
       </c>
       <c r="F12">
-        <v>51.42013231000031</v>
+        <v>50.50373300043699</v>
       </c>
       <c r="I12">
-        <v>30.34129855011566</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>30.78355818781445</v>
       </c>
       <c r="L12">
-        <v>22.6706249630039</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>11.82039871822501</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.8633066538134</v>
+        <v>34.53350759776133</v>
       </c>
       <c r="C13">
-        <v>26.86380967760747</v>
+        <v>25.60303078711786</v>
       </c>
       <c r="D13">
-        <v>4.221070264153893</v>
+        <v>3.832525558059363</v>
       </c>
       <c r="E13">
-        <v>16.81626383598643</v>
+        <v>41.39329971795431</v>
       </c>
       <c r="F13">
-        <v>51.25774536155354</v>
+        <v>50.3413902666731</v>
       </c>
       <c r="I13">
-        <v>30.26225225493286</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>30.68518968207535</v>
       </c>
       <c r="L13">
-        <v>22.5982902103442</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>11.82793725140394</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.52365702985748</v>
+        <v>34.16992338886371</v>
       </c>
       <c r="C14">
-        <v>26.58918955664017</v>
+        <v>25.33124262903195</v>
       </c>
       <c r="D14">
-        <v>4.211068130790632</v>
+        <v>3.827602611293181</v>
       </c>
       <c r="E14">
-        <v>16.63554008559474</v>
+        <v>40.91599538618211</v>
       </c>
       <c r="F14">
-        <v>50.72797463006921</v>
+        <v>49.81213546376483</v>
       </c>
       <c r="I14">
-        <v>30.00511508325309</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>30.36391284862768</v>
       </c>
       <c r="L14">
-        <v>22.36198634164315</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>11.85289646165442</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.31492634896698</v>
+        <v>33.94675572145739</v>
       </c>
       <c r="C15">
-        <v>26.4205082567369</v>
+        <v>25.16450229802624</v>
       </c>
       <c r="D15">
-        <v>4.205197780938695</v>
+        <v>3.824897017729016</v>
       </c>
       <c r="E15">
-        <v>16.52463547372807</v>
+        <v>40.62384182752901</v>
       </c>
       <c r="F15">
-        <v>50.40330200862579</v>
+        <v>49.4880531060649</v>
       </c>
       <c r="I15">
-        <v>29.84809741103142</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>30.1667348626193</v>
       </c>
       <c r="L15">
-        <v>22.21691997535665</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>11.86846525820588</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.10770197187156</v>
+        <v>32.65990329606561</v>
       </c>
       <c r="C16">
-        <v>25.44616629814214</v>
+        <v>24.20420496983001</v>
       </c>
       <c r="D16">
-        <v>4.175273193529518</v>
+        <v>3.813805609979324</v>
       </c>
       <c r="E16">
-        <v>15.88552397575581</v>
+        <v>38.95079362381691</v>
       </c>
       <c r="F16">
-        <v>48.53910279475571</v>
+        <v>47.63101134901001</v>
       </c>
       <c r="I16">
-        <v>28.9552436769749</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>29.03004408613558</v>
       </c>
       <c r="L16">
-        <v>21.38015227467901</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>11.96170751333169</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.35664997061956</v>
+        <v>31.8624584763644</v>
       </c>
       <c r="C17">
-        <v>24.84104468229956</v>
+        <v>23.61007513843602</v>
       </c>
       <c r="D17">
-        <v>4.16001245660985</v>
+        <v>3.810599697956649</v>
       </c>
       <c r="E17">
-        <v>15.48986161446569</v>
+        <v>37.92345097074057</v>
       </c>
       <c r="F17">
-        <v>47.39126283102145</v>
+        <v>46.49051923935932</v>
       </c>
       <c r="I17">
-        <v>28.4132211189407</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>28.32588486944403</v>
       </c>
       <c r="L17">
-        <v>20.8614560809728</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>12.02222360462096</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.92060622411705</v>
+        <v>31.40052274743044</v>
       </c>
       <c r="C18">
-        <v>24.49008226495308</v>
+        <v>23.26622715771576</v>
       </c>
       <c r="D18">
-        <v>4.152290542602755</v>
+        <v>3.809953065909649</v>
       </c>
       <c r="E18">
-        <v>15.26081675927757</v>
+        <v>37.33145970377987</v>
       </c>
       <c r="F18">
-        <v>46.77078637057589</v>
+        <v>45.83358385191577</v>
       </c>
       <c r="I18">
-        <v>28.10339251115542</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>27.91805975809719</v>
       </c>
       <c r="L18">
-        <v>20.56095752898249</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>12.05814924572247</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.77225309253621</v>
+        <v>31.24352966089156</v>
       </c>
       <c r="C19">
-        <v>24.37073483669239</v>
+        <v>23.1494178349416</v>
       </c>
       <c r="D19">
-        <v>4.149849891996221</v>
+        <v>3.80992873360405</v>
       </c>
       <c r="E19">
-        <v>15.18300010264852</v>
+        <v>37.13077093305895</v>
       </c>
       <c r="F19">
-        <v>46.56113618522361</v>
+        <v>45.61095099291725</v>
       </c>
       <c r="I19">
-        <v>27.99880670969171</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>27.77946810424537</v>
       </c>
       <c r="L19">
-        <v>20.4588266610385</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>12.07049645477085</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.43701615037616</v>
+        <v>31.94767899121127</v>
       </c>
       <c r="C20">
-        <v>24.90575814534493</v>
+        <v>23.6735348473599</v>
       </c>
       <c r="D20">
-        <v>4.161525937376654</v>
+        <v>3.81081438192836</v>
       </c>
       <c r="E20">
-        <v>15.53212946461944</v>
+        <v>38.03291085934369</v>
       </c>
       <c r="F20">
-        <v>47.51364144747783</v>
+        <v>46.6120151129911</v>
       </c>
       <c r="I20">
-        <v>28.47071723068546</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>28.40112842497424</v>
       </c>
       <c r="L20">
-        <v>20.91689154501754</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>12.01566370467276</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.62356179983404</v>
+        <v>34.2768108910933</v>
       </c>
       <c r="C21">
-        <v>26.66994850152359</v>
+        <v>25.41112614250769</v>
       </c>
       <c r="D21">
-        <v>4.213952076311397</v>
+        <v>3.828983186191454</v>
       </c>
       <c r="E21">
-        <v>16.68866497635035</v>
+        <v>41.05614248753095</v>
       </c>
       <c r="F21">
-        <v>50.88361464669935</v>
+        <v>49.96756568072808</v>
       </c>
       <c r="I21">
-        <v>30.08053988185541</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>30.45835816231396</v>
       </c>
       <c r="L21">
-        <v>22.43146068554377</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>11.84550617047332</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.02132038176891</v>
+        <v>35.77745649325472</v>
       </c>
       <c r="C22">
-        <v>27.80143737641277</v>
+        <v>26.53423770576124</v>
       </c>
       <c r="D22">
-        <v>4.259457227129173</v>
+        <v>3.854378040130269</v>
       </c>
       <c r="E22">
-        <v>17.4348826703316</v>
+        <v>43.03932257755303</v>
       </c>
       <c r="F22">
-        <v>53.07736832093437</v>
+        <v>52.16376443676061</v>
       </c>
       <c r="I22">
-        <v>31.15392719943488</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>31.78473961338577</v>
       </c>
       <c r="L22">
-        <v>23.40632747294242</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>11.746576235349</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.27791005720338</v>
+        <v>34.9780912636213</v>
       </c>
       <c r="C23">
-        <v>27.19926996812224</v>
+        <v>25.93560146552434</v>
       </c>
       <c r="D23">
-        <v>4.234044808439462</v>
+        <v>3.839431041055425</v>
       </c>
       <c r="E23">
-        <v>17.03730799087912</v>
+        <v>41.97922964848128</v>
       </c>
       <c r="F23">
-        <v>51.90685600461919</v>
+        <v>50.99065413535121</v>
       </c>
       <c r="I23">
-        <v>30.57885492984357</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>31.07810176478849</v>
       </c>
       <c r="L23">
-        <v>22.88716577074915</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>11.79812385427716</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.40069590082373</v>
+        <v>31.90916169391071</v>
       </c>
       <c r="C24">
-        <v>24.87651079634333</v>
+        <v>23.64485186332222</v>
       </c>
       <c r="D24">
-        <v>4.160838436404958</v>
+        <v>3.810713625907512</v>
       </c>
       <c r="E24">
-        <v>15.51302510525386</v>
+        <v>37.98342844580376</v>
       </c>
       <c r="F24">
-        <v>47.45832099717893</v>
+        <v>46.55709084161019</v>
       </c>
       <c r="I24">
-        <v>28.44471771150403</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>28.36712021125269</v>
       </c>
       <c r="L24">
-        <v>20.89183635780689</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>12.0186259263206</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.14010863358493</v>
+        <v>28.47140848003984</v>
       </c>
       <c r="C25">
-        <v>22.2580015054747</v>
+        <v>21.09072769631976</v>
       </c>
       <c r="D25">
-        <v>4.121449947987918</v>
+        <v>3.82450425453845</v>
       </c>
       <c r="E25">
-        <v>13.81133451354429</v>
+        <v>33.62638369862789</v>
       </c>
       <c r="F25">
-        <v>42.92202127004792</v>
+        <v>41.99833265751826</v>
       </c>
       <c r="I25">
-        <v>26.2155784087305</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>25.33307606458811</v>
       </c>
       <c r="L25">
-        <v>18.65544367178811</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.29851367237347</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.80041439670676</v>
+        <v>30.92638674371999</v>
       </c>
       <c r="C2">
-        <v>19.1131314204399</v>
+        <v>24.16604616856667</v>
       </c>
       <c r="D2">
-        <v>3.86163379409621</v>
+        <v>4.119762527198924</v>
       </c>
       <c r="E2">
-        <v>30.31257991758111</v>
+        <v>30.78243789255326</v>
       </c>
       <c r="F2">
-        <v>38.68981317089198</v>
+        <v>42.24959456308243</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.97690611193222</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.5319739497398</v>
+        <v>11.57608553292103</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.89146575648628</v>
+        <v>28.60340085304412</v>
       </c>
       <c r="C3">
-        <v>17.70263042491466</v>
+        <v>22.35362873094132</v>
       </c>
       <c r="D3">
-        <v>3.899243137657312</v>
+        <v>4.060446711155026</v>
       </c>
       <c r="E3">
-        <v>27.97669031143275</v>
+        <v>28.36036910608604</v>
       </c>
       <c r="F3">
-        <v>36.42571892276603</v>
+        <v>39.50576099286733</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.29315569517046</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.70412467518605</v>
+        <v>11.81313934937789</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66750163857048</v>
+        <v>27.1188209588716</v>
       </c>
       <c r="C4">
-        <v>16.79927025235109</v>
+        <v>21.19666097027793</v>
       </c>
       <c r="D4">
-        <v>3.927322483419627</v>
+        <v>4.033103614239467</v>
       </c>
       <c r="E4">
-        <v>26.49163652290056</v>
+        <v>26.82753490645198</v>
       </c>
       <c r="F4">
-        <v>35.02412051046089</v>
+        <v>37.80393676872919</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.21351078888206</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.81590516989515</v>
+        <v>11.96399407076816</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.15527991128348</v>
+        <v>26.49853973923517</v>
       </c>
       <c r="C5">
-        <v>16.42141676577605</v>
+        <v>20.71351994421892</v>
       </c>
       <c r="D5">
-        <v>3.939873010152112</v>
+        <v>4.023999283830788</v>
       </c>
       <c r="E5">
-        <v>25.87287135478122</v>
+        <v>26.19031398175007</v>
       </c>
       <c r="F5">
-        <v>34.45020570774015</v>
+        <v>37.10592810434798</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.76164269008437</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.86288695851007</v>
+        <v>12.02672299307602</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.06940278997741</v>
+        <v>26.39460077003924</v>
       </c>
       <c r="C6">
-        <v>16.35807757574314</v>
+        <v>20.63257478449653</v>
       </c>
       <c r="D6">
-        <v>3.942020060820418</v>
+        <v>4.022603861503113</v>
       </c>
       <c r="E6">
-        <v>25.7692827963246</v>
+        <v>26.08371517075129</v>
       </c>
       <c r="F6">
-        <v>34.35474856982125</v>
+        <v>36.98975184428129</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.6858808848931</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.87077206629022</v>
+        <v>12.03721290925391</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66064858340492</v>
+        <v>27.11051839215672</v>
       </c>
       <c r="C7">
-        <v>16.79421420292248</v>
+        <v>21.19019310208882</v>
       </c>
       <c r="D7">
-        <v>3.927487435843782</v>
+        <v>4.032972885485921</v>
       </c>
       <c r="E7">
-        <v>26.48334768931838</v>
+        <v>26.81899338502324</v>
       </c>
       <c r="F7">
-        <v>35.01639133852222</v>
+        <v>37.79454147052959</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.20746541562028</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.81653310956976</v>
+        <v>11.96483506583795</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.15271328992852</v>
+        <v>30.13709005629709</v>
       </c>
       <c r="C8">
-        <v>18.63431337322441</v>
+        <v>23.54991832851241</v>
       </c>
       <c r="D8">
-        <v>3.873471594760209</v>
+        <v>4.09727277581289</v>
       </c>
       <c r="E8">
-        <v>29.51718502186498</v>
+        <v>29.95607716918788</v>
       </c>
       <c r="F8">
-        <v>37.91154080061564</v>
+        <v>41.30685843939779</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.4056140638119</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.59000521731167</v>
+        <v>11.6566667805207</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.64937945168049</v>
+        <v>35.64511806468836</v>
       </c>
       <c r="C9">
-        <v>21.96467908495076</v>
+        <v>27.85762070289555</v>
       </c>
       <c r="D9">
-        <v>3.814997018949621</v>
+        <v>4.307654353920428</v>
       </c>
       <c r="E9">
-        <v>35.10676284857906</v>
+        <v>35.8054413811198</v>
       </c>
       <c r="F9">
-        <v>43.5037645769168</v>
+        <v>48.32446074833292</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.37246567706089</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.19948429912531</v>
+        <v>11.0993637762798</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.75047743741845</v>
+        <v>39.49246324539017</v>
       </c>
       <c r="C10">
-        <v>24.27173129937919</v>
+        <v>30.88041477763302</v>
       </c>
       <c r="D10">
-        <v>3.814342439010869</v>
+        <v>4.53330165048745</v>
       </c>
       <c r="E10">
-        <v>39.06792353898398</v>
+        <v>40.02549327901443</v>
       </c>
       <c r="F10">
-        <v>47.76105409324398</v>
+        <v>53.59915494593515</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>29.11003351519641</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.95496070761942</v>
+        <v>10.72850366607476</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.12727506646566</v>
+        <v>41.21788814098611</v>
       </c>
       <c r="C11">
-        <v>25.29937298591763</v>
+        <v>32.24077606262681</v>
       </c>
       <c r="D11">
-        <v>3.827067130602675</v>
+        <v>4.750982842790997</v>
       </c>
       <c r="E11">
-        <v>40.86011606114519</v>
+        <v>41.96225208747516</v>
       </c>
       <c r="F11">
-        <v>49.75015621709858</v>
+        <v>56.00957835476736</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.32623002567803</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.85585729170535</v>
+        <v>10.57167147234226</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.64481972494101</v>
+        <v>41.86979625916004</v>
       </c>
       <c r="C12">
-        <v>25.68627341602746</v>
+        <v>32.75562308965597</v>
       </c>
       <c r="D12">
-        <v>3.834162176491883</v>
+        <v>4.848173292346626</v>
       </c>
       <c r="E12">
-        <v>41.53976204346342</v>
+        <v>42.70207851768163</v>
       </c>
       <c r="F12">
-        <v>50.50373300043699</v>
+        <v>56.92722483775042</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>30.78355818781445</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.82039871822501</v>
+        <v>10.51442652005847</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.53350759776133</v>
+        <v>41.72942171519994</v>
       </c>
       <c r="C13">
-        <v>25.60303078711786</v>
+        <v>32.64471950817898</v>
       </c>
       <c r="D13">
-        <v>3.832525558059363</v>
+        <v>4.827151003529568</v>
       </c>
       <c r="E13">
-        <v>41.39329971795431</v>
+        <v>42.54238066359514</v>
       </c>
       <c r="F13">
-        <v>50.3413902666731</v>
+        <v>56.72931208791725</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>30.68518968207535</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.82793725140394</v>
+        <v>10.52665125419461</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.16992338886371</v>
+        <v>41.27153636773426</v>
       </c>
       <c r="C14">
-        <v>25.33124262903195</v>
+        <v>32.28312627359757</v>
       </c>
       <c r="D14">
-        <v>3.827602611293181</v>
+        <v>4.758939016779644</v>
       </c>
       <c r="E14">
-        <v>40.91599538618211</v>
+        <v>42.02296199161997</v>
       </c>
       <c r="F14">
-        <v>49.81213546376483</v>
+        <v>56.0849532252176</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>30.36391284862768</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.85289646165442</v>
+        <v>10.56691587305314</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.94675572145739</v>
+        <v>40.99094891539246</v>
       </c>
       <c r="C15">
-        <v>25.16450229802624</v>
+        <v>32.06166534756293</v>
       </c>
       <c r="D15">
-        <v>3.824897017729016</v>
+        <v>4.717409949137328</v>
       </c>
       <c r="E15">
-        <v>40.62384182752901</v>
+        <v>41.70577878096081</v>
       </c>
       <c r="F15">
-        <v>49.4880531060649</v>
+        <v>55.6910156713692</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>30.1667348626193</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.86846525820588</v>
+        <v>10.59187389226247</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.65990329606561</v>
+        <v>39.3793697516577</v>
       </c>
       <c r="C16">
-        <v>24.20420496983001</v>
+        <v>30.79135996759422</v>
       </c>
       <c r="D16">
-        <v>3.813805609979324</v>
+        <v>4.525693947822433</v>
       </c>
       <c r="E16">
-        <v>38.95079362381691</v>
+        <v>39.89957560244346</v>
       </c>
       <c r="F16">
-        <v>47.63101134901001</v>
+        <v>53.44210661108902</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>29.03004408613558</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.96170751333169</v>
+        <v>10.73902595396973</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.8624584763644</v>
+        <v>38.38568776499594</v>
       </c>
       <c r="C17">
-        <v>23.61007513843602</v>
+        <v>30.00944053695494</v>
       </c>
       <c r="D17">
-        <v>3.810599697956649</v>
+        <v>4.461422445901922</v>
       </c>
       <c r="E17">
-        <v>37.92345097074057</v>
+        <v>38.79834502338182</v>
       </c>
       <c r="F17">
-        <v>46.49051923935932</v>
+        <v>52.06730821056246</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.32588486944403</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.02222360462096</v>
+        <v>10.83260664006621</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.40052274743044</v>
+        <v>37.81166532567921</v>
       </c>
       <c r="C18">
-        <v>23.26622715771576</v>
+        <v>29.55818115837455</v>
       </c>
       <c r="D18">
-        <v>3.809953065909649</v>
+        <v>4.426383074819149</v>
       </c>
       <c r="E18">
-        <v>37.33145970377987</v>
+        <v>38.16625362852619</v>
       </c>
       <c r="F18">
-        <v>45.83358385191577</v>
+        <v>51.27734125333615</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.91805975809719</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.05814924572247</v>
+        <v>10.88751609079228</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.24352966089156</v>
+        <v>37.61683033723028</v>
       </c>
       <c r="C19">
-        <v>23.1494178349416</v>
+        <v>29.40508394806557</v>
       </c>
       <c r="D19">
-        <v>3.80992873360405</v>
+        <v>4.414834672586324</v>
       </c>
       <c r="E19">
-        <v>37.13077093305895</v>
+        <v>37.95236128380679</v>
       </c>
       <c r="F19">
-        <v>45.61095099291725</v>
+        <v>51.00992196938186</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.77946810424537</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.07049645477085</v>
+        <v>10.90628272142597</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.94767899121127</v>
+        <v>38.49171060654575</v>
       </c>
       <c r="C20">
-        <v>23.6735348473599</v>
+        <v>30.09282293162294</v>
       </c>
       <c r="D20">
-        <v>3.81081438192836</v>
+        <v>4.468060891431628</v>
       </c>
       <c r="E20">
-        <v>38.03291085934369</v>
+        <v>38.91541276053017</v>
       </c>
       <c r="F20">
-        <v>46.6120151129911</v>
+        <v>52.21355644643674</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.40112842497424</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.01566370467276</v>
+        <v>10.82252989562427</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.2768108910933</v>
+        <v>41.40604865158193</v>
       </c>
       <c r="C21">
-        <v>25.41112614250769</v>
+        <v>32.38932561538972</v>
       </c>
       <c r="D21">
-        <v>3.828983186191454</v>
+        <v>4.778920563482224</v>
       </c>
       <c r="E21">
-        <v>41.05614248753095</v>
+        <v>42.17531547735708</v>
       </c>
       <c r="F21">
-        <v>49.96756568072808</v>
+        <v>56.2740530606634</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.45835816231396</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.84550617047332</v>
+        <v>10.55502674051767</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.77745649325472</v>
+        <v>43.30362194841121</v>
       </c>
       <c r="C22">
-        <v>26.53423770576124</v>
+        <v>33.88981283707405</v>
       </c>
       <c r="D22">
-        <v>3.854378040130269</v>
+        <v>5.065922138699206</v>
       </c>
       <c r="E22">
-        <v>43.03932257755303</v>
+        <v>44.34617601160605</v>
       </c>
       <c r="F22">
-        <v>52.16376443676061</v>
+        <v>58.95863228266588</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.78473961338577</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.746576235349</v>
+        <v>10.39302164979066</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.9780912636213</v>
+        <v>42.29063745891847</v>
       </c>
       <c r="C23">
-        <v>25.93560146552434</v>
+        <v>33.08825284238349</v>
       </c>
       <c r="D23">
-        <v>3.839431041055425</v>
+        <v>4.911511166595735</v>
       </c>
       <c r="E23">
-        <v>41.97922964848128</v>
+        <v>43.18217032773111</v>
       </c>
       <c r="F23">
-        <v>50.99065413535121</v>
+        <v>57.52160239715713</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31.07810176478849</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.79812385427716</v>
+        <v>10.47812561429666</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.90916169391071</v>
+        <v>38.4437863674305</v>
       </c>
       <c r="C24">
-        <v>23.64485186332222</v>
+        <v>30.05513124908426</v>
       </c>
       <c r="D24">
-        <v>3.810713625907512</v>
+        <v>4.465053739899187</v>
       </c>
       <c r="E24">
-        <v>37.98342844580376</v>
+        <v>38.86248353755471</v>
       </c>
       <c r="F24">
-        <v>46.55709084161019</v>
+        <v>52.14743653489317</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.36712021125269</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.0186259263206</v>
+        <v>10.82708216925995</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.47140848003984</v>
+        <v>34.195241537891</v>
       </c>
       <c r="C25">
-        <v>21.09072769631976</v>
+        <v>26.72171157539399</v>
       </c>
       <c r="D25">
-        <v>3.82450425453845</v>
+        <v>4.239859589838022</v>
       </c>
       <c r="E25">
-        <v>33.62638369862789</v>
+        <v>34.24587849566008</v>
       </c>
       <c r="F25">
-        <v>41.99833265751826</v>
+        <v>46.37477848998955</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.33307606458811</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.29851367237347</v>
+        <v>11.24426411762601</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.92638674371999</v>
+        <v>19.0299024646938</v>
       </c>
       <c r="C2">
-        <v>24.16604616856667</v>
+        <v>13.02988195902424</v>
       </c>
       <c r="D2">
-        <v>4.119762527198924</v>
+        <v>5.411078095326297</v>
       </c>
       <c r="E2">
-        <v>30.78243789255326</v>
+        <v>16.46589187120819</v>
       </c>
       <c r="F2">
-        <v>42.24959456308243</v>
+        <v>33.90383578391599</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.57608553292103</v>
+        <v>17.44316607581648</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.60340085304412</v>
+        <v>18.2226977188296</v>
       </c>
       <c r="C3">
-        <v>22.35362873094132</v>
+        <v>12.24552864516589</v>
       </c>
       <c r="D3">
-        <v>4.060446711155026</v>
+        <v>5.420294845771187</v>
       </c>
       <c r="E3">
-        <v>28.36036910608604</v>
+        <v>15.52545175275263</v>
       </c>
       <c r="F3">
-        <v>39.50576099286733</v>
+        <v>33.22637460469882</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.81313934937789</v>
+        <v>17.50383966367419</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.1188209588716</v>
+        <v>17.7152809864411</v>
       </c>
       <c r="C4">
-        <v>21.19666097027793</v>
+        <v>11.74112660364019</v>
       </c>
       <c r="D4">
-        <v>4.033103614239467</v>
+        <v>5.427424644875193</v>
       </c>
       <c r="E4">
-        <v>26.82753490645198</v>
+        <v>14.9245583793404</v>
       </c>
       <c r="F4">
-        <v>37.80393676872919</v>
+        <v>32.81680671120823</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.96399407076816</v>
+        <v>17.5430766301334</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.49853973923517</v>
+        <v>17.50588947413828</v>
       </c>
       <c r="C5">
-        <v>20.71351994421892</v>
+        <v>11.53001738689059</v>
       </c>
       <c r="D5">
-        <v>4.023999283830788</v>
+        <v>5.430695470240081</v>
       </c>
       <c r="E5">
-        <v>26.19031398175007</v>
+        <v>14.67406152717285</v>
       </c>
       <c r="F5">
-        <v>37.10592810434798</v>
+        <v>32.65174673131767</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.02672299307602</v>
+        <v>17.55956378142664</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.39460077003924</v>
+        <v>17.47097323410299</v>
       </c>
       <c r="C6">
-        <v>20.63257478449653</v>
+        <v>11.49463281516136</v>
       </c>
       <c r="D6">
-        <v>4.022603861503113</v>
+        <v>5.431260524904916</v>
       </c>
       <c r="E6">
-        <v>26.08371517075129</v>
+        <v>14.63213578358176</v>
       </c>
       <c r="F6">
-        <v>36.98975184428129</v>
+        <v>32.62445671002457</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.03721290925391</v>
+        <v>17.56233149876924</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.11051839215672</v>
+        <v>17.71246715610447</v>
       </c>
       <c r="C7">
-        <v>21.19019310208882</v>
+        <v>11.73830177068373</v>
       </c>
       <c r="D7">
-        <v>4.032972885485921</v>
+        <v>5.427467282885502</v>
       </c>
       <c r="E7">
-        <v>26.81899338502324</v>
+        <v>14.92120248101157</v>
       </c>
       <c r="F7">
-        <v>37.79454147052959</v>
+        <v>32.81457288765623</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.96483506583795</v>
+        <v>17.5432969673107</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.13709005629709</v>
+        <v>18.75422260181159</v>
       </c>
       <c r="C8">
-        <v>23.54991832851241</v>
+        <v>12.76426290818101</v>
       </c>
       <c r="D8">
-        <v>4.09727277581289</v>
+        <v>5.413948140114115</v>
       </c>
       <c r="E8">
-        <v>29.95607716918788</v>
+        <v>16.14664389643332</v>
       </c>
       <c r="F8">
-        <v>41.30685843939779</v>
+        <v>33.66906042346503</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.6566667805207</v>
+        <v>17.4636741721765</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.64511806468836</v>
+        <v>20.69019709301865</v>
       </c>
       <c r="C9">
-        <v>27.85762070289555</v>
+        <v>14.58935103793376</v>
       </c>
       <c r="D9">
-        <v>4.307654353920428</v>
+        <v>5.399302330710603</v>
       </c>
       <c r="E9">
-        <v>35.8054413811198</v>
+        <v>18.43677942462618</v>
       </c>
       <c r="F9">
-        <v>48.32446074833292</v>
+        <v>35.3851708306037</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.0993637762798</v>
+        <v>17.32331052248272</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.49246324539017</v>
+        <v>22.03211809840238</v>
       </c>
       <c r="C10">
-        <v>30.88041477763302</v>
+        <v>15.83207327609944</v>
       </c>
       <c r="D10">
-        <v>4.53330165048745</v>
+        <v>5.396039689456074</v>
       </c>
       <c r="E10">
-        <v>40.02549327901443</v>
+        <v>20.1034978793817</v>
       </c>
       <c r="F10">
-        <v>53.59915494593515</v>
+        <v>36.65709078807711</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.72850366607476</v>
+        <v>17.22986056205369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.21788814098611</v>
+        <v>22.62258163076735</v>
       </c>
       <c r="C11">
-        <v>32.24077606262681</v>
+        <v>16.39552342057327</v>
       </c>
       <c r="D11">
-        <v>4.750982842790997</v>
+        <v>5.396238391367107</v>
       </c>
       <c r="E11">
-        <v>41.96225208747516</v>
+        <v>20.82061698643642</v>
       </c>
       <c r="F11">
-        <v>56.00957835476736</v>
+        <v>37.23536968867223</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.57167147234226</v>
+        <v>17.18946244811672</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.86979625916004</v>
+        <v>22.8431290553124</v>
       </c>
       <c r="C12">
-        <v>32.75562308965597</v>
+        <v>16.60418592823392</v>
       </c>
       <c r="D12">
-        <v>4.848173292346626</v>
+        <v>5.396559966279663</v>
       </c>
       <c r="E12">
-        <v>42.70207851768163</v>
+        <v>21.08630846517839</v>
       </c>
       <c r="F12">
-        <v>56.92722483775042</v>
+        <v>37.45408400282794</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.51442652005847</v>
+        <v>17.17446992867203</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.72942171519994</v>
+        <v>22.79576830045271</v>
       </c>
       <c r="C13">
-        <v>32.64471950817898</v>
+        <v>16.55945556941721</v>
       </c>
       <c r="D13">
-        <v>4.827151003529568</v>
+        <v>5.39647968589023</v>
       </c>
       <c r="E13">
-        <v>42.54238066359514</v>
+        <v>21.02934728594566</v>
       </c>
       <c r="F13">
-        <v>56.72931208791725</v>
+        <v>37.40699525175848</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.52665125419461</v>
+        <v>17.17768522870712</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.27153636773426</v>
+        <v>22.64078820047841</v>
       </c>
       <c r="C14">
-        <v>32.28312627359757</v>
+        <v>16.41278435378999</v>
       </c>
       <c r="D14">
-        <v>4.758939016779644</v>
+        <v>5.396259886268408</v>
       </c>
       <c r="E14">
-        <v>42.02296199161997</v>
+        <v>20.84259291084896</v>
       </c>
       <c r="F14">
-        <v>56.0849532252176</v>
+        <v>37.25337003105781</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.56691587305314</v>
+        <v>17.18822287521207</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.99094891539246</v>
+        <v>22.54545669807582</v>
       </c>
       <c r="C15">
-        <v>32.06166534756293</v>
+        <v>16.32233208624714</v>
       </c>
       <c r="D15">
-        <v>4.717409949137328</v>
+        <v>5.396157458915321</v>
       </c>
       <c r="E15">
-        <v>41.70577878096081</v>
+        <v>20.7274377651631</v>
       </c>
       <c r="F15">
-        <v>55.6910156713692</v>
+        <v>37.15922896241352</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.59187389226247</v>
+        <v>17.19471730391493</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.3793697516577</v>
+        <v>21.9931122596022</v>
       </c>
       <c r="C16">
-        <v>30.79135996759422</v>
+        <v>15.79459104202971</v>
       </c>
       <c r="D16">
-        <v>4.525693947822433</v>
+        <v>5.396060940770883</v>
       </c>
       <c r="E16">
-        <v>39.89957560244346</v>
+        <v>20.05580935891375</v>
       </c>
       <c r="F16">
-        <v>53.44210661108902</v>
+        <v>36.61927326808261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.73902595396973</v>
+        <v>17.23254331881922</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.38568776499594</v>
+        <v>21.64901578703598</v>
       </c>
       <c r="C17">
-        <v>30.00944053695494</v>
+        <v>15.46480566260421</v>
       </c>
       <c r="D17">
-        <v>4.461422445901922</v>
+        <v>5.396435876056854</v>
       </c>
       <c r="E17">
-        <v>38.79834502338182</v>
+        <v>19.63329498098246</v>
       </c>
       <c r="F17">
-        <v>52.06730821056246</v>
+        <v>36.28778456046521</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.83260664006621</v>
+        <v>17.25629055856476</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.81166532567921</v>
+        <v>21.44922834138448</v>
       </c>
       <c r="C18">
-        <v>29.55818115837455</v>
+        <v>15.2836530714565</v>
       </c>
       <c r="D18">
-        <v>4.426383074819149</v>
+        <v>5.396809678362816</v>
       </c>
       <c r="E18">
-        <v>38.16625362852619</v>
+        <v>19.38640682776752</v>
       </c>
       <c r="F18">
-        <v>51.27734125333615</v>
+        <v>36.09710311631636</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.88751609079228</v>
+        <v>17.27014810529746</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.61683033723028</v>
+        <v>21.38126794783762</v>
       </c>
       <c r="C19">
-        <v>29.40508394806557</v>
+        <v>15.22188702843998</v>
       </c>
       <c r="D19">
-        <v>4.414834672586324</v>
+        <v>5.39696326990292</v>
       </c>
       <c r="E19">
-        <v>37.95236128380679</v>
+        <v>19.30214897137628</v>
       </c>
       <c r="F19">
-        <v>51.00992196938186</v>
+        <v>36.0325454808209</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.90628272142597</v>
+        <v>17.27487412402039</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.49171060654575</v>
+        <v>21.68584056545765</v>
       </c>
       <c r="C20">
-        <v>30.09282293162294</v>
+        <v>15.49812785968368</v>
       </c>
       <c r="D20">
-        <v>4.468060891431628</v>
+        <v>5.396379563967623</v>
       </c>
       <c r="E20">
-        <v>38.91541276053017</v>
+        <v>19.67867249184244</v>
       </c>
       <c r="F20">
-        <v>52.21355644643674</v>
+        <v>36.32307558604352</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.82252989562427</v>
+        <v>17.25374204219344</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.40604865158193</v>
+        <v>22.68639360547148</v>
       </c>
       <c r="C21">
-        <v>32.38932561538972</v>
+        <v>16.45599272683964</v>
       </c>
       <c r="D21">
-        <v>4.778920563482224</v>
+        <v>5.396317727404059</v>
       </c>
       <c r="E21">
-        <v>42.17531547735708</v>
+        <v>20.89760607006963</v>
       </c>
       <c r="F21">
-        <v>56.2740530606634</v>
+        <v>37.29850244377744</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.55502674051767</v>
+        <v>17.18511941245413</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.30362194841121</v>
+        <v>23.32248186787035</v>
       </c>
       <c r="C22">
-        <v>33.88981283707405</v>
+        <v>17.05461411943589</v>
       </c>
       <c r="D22">
-        <v>5.065922138699206</v>
+        <v>5.397715049526521</v>
       </c>
       <c r="E22">
-        <v>44.34617601160605</v>
+        <v>21.66007742077278</v>
       </c>
       <c r="F22">
-        <v>58.95863228266588</v>
+        <v>37.93434744083881</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.39302164979066</v>
+        <v>17.14205127403829</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.29063745891847</v>
+        <v>22.98467222003882</v>
       </c>
       <c r="C23">
-        <v>33.08825284238349</v>
+        <v>16.73761883403753</v>
       </c>
       <c r="D23">
-        <v>4.911511166595735</v>
+        <v>5.396836316537512</v>
       </c>
       <c r="E23">
-        <v>43.18217032773111</v>
+        <v>21.25624525779039</v>
       </c>
       <c r="F23">
-        <v>57.52160239715713</v>
+        <v>37.59520630896871</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.47812561429666</v>
+        <v>17.16487407481469</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.4437863674305</v>
+        <v>21.66919818016649</v>
       </c>
       <c r="C24">
-        <v>30.05513124908426</v>
+        <v>15.48307098709758</v>
       </c>
       <c r="D24">
-        <v>4.465053739899187</v>
+        <v>5.396404530088661</v>
       </c>
       <c r="E24">
-        <v>38.86248353755471</v>
+        <v>19.65816971602738</v>
       </c>
       <c r="F24">
-        <v>52.14743653489317</v>
+        <v>36.3071208209746</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82708216925995</v>
+        <v>17.25489358821267</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.195241537891</v>
+        <v>20.17962238864113</v>
       </c>
       <c r="C25">
-        <v>26.72171157539399</v>
+        <v>14.1163163754722</v>
       </c>
       <c r="D25">
-        <v>4.239859589838022</v>
+        <v>5.401966546699272</v>
       </c>
       <c r="E25">
-        <v>34.24587849566008</v>
+        <v>17.78629376902386</v>
       </c>
       <c r="F25">
-        <v>46.37477848998955</v>
+        <v>34.91800615943511</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.24426411762601</v>
+        <v>17.35958798893854</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.0299024646938</v>
+        <v>30.92638674372003</v>
       </c>
       <c r="C2">
-        <v>13.02988195902424</v>
+        <v>24.16604616856666</v>
       </c>
       <c r="D2">
-        <v>5.411078095326297</v>
+        <v>4.119762527198949</v>
       </c>
       <c r="E2">
-        <v>16.46589187120819</v>
+        <v>30.78243789255325</v>
       </c>
       <c r="F2">
-        <v>33.90383578391599</v>
+        <v>42.24959456308241</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.44316607581648</v>
+        <v>11.57608553292111</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.2226977188296</v>
+        <v>28.60340085304424</v>
       </c>
       <c r="C3">
-        <v>12.24552864516589</v>
+        <v>22.35362873094127</v>
       </c>
       <c r="D3">
-        <v>5.420294845771187</v>
+        <v>4.060446711155087</v>
       </c>
       <c r="E3">
-        <v>15.52545175275263</v>
+        <v>28.36036910608619</v>
       </c>
       <c r="F3">
-        <v>33.22637460469882</v>
+        <v>39.50576099286724</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.50383966367419</v>
+        <v>11.81313934937774</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.7152809864411</v>
+        <v>27.11882095887156</v>
       </c>
       <c r="C4">
-        <v>11.74112660364019</v>
+        <v>21.19666097027789</v>
       </c>
       <c r="D4">
-        <v>5.427424644875193</v>
+        <v>4.033103614239541</v>
       </c>
       <c r="E4">
-        <v>14.9245583793404</v>
+        <v>26.82753490645198</v>
       </c>
       <c r="F4">
-        <v>32.81680671120823</v>
+        <v>37.80393676872914</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.5430766301334</v>
+        <v>11.96399407076821</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.50588947413828</v>
+        <v>26.49853973923538</v>
       </c>
       <c r="C5">
-        <v>11.53001738689059</v>
+        <v>20.71351994421912</v>
       </c>
       <c r="D5">
-        <v>5.430695470240081</v>
+        <v>4.02399928383089</v>
       </c>
       <c r="E5">
-        <v>14.67406152717285</v>
+        <v>26.19031398175018</v>
       </c>
       <c r="F5">
-        <v>32.65174673131767</v>
+        <v>37.10592810434793</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.55956378142664</v>
+        <v>12.02672299307582</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.47097323410299</v>
+        <v>26.39460077003933</v>
       </c>
       <c r="C6">
-        <v>11.49463281516136</v>
+        <v>20.63257478449674</v>
       </c>
       <c r="D6">
-        <v>5.431260524904916</v>
+        <v>4.022603861503135</v>
       </c>
       <c r="E6">
-        <v>14.63213578358176</v>
+        <v>26.08371517075135</v>
       </c>
       <c r="F6">
-        <v>32.62445671002457</v>
+        <v>36.98975184428126</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.56233149876924</v>
+        <v>12.03721290925381</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.71246715610447</v>
+        <v>27.11051839215662</v>
       </c>
       <c r="C7">
-        <v>11.73830177068373</v>
+        <v>21.19019310208885</v>
       </c>
       <c r="D7">
-        <v>5.427467282885502</v>
+        <v>4.032972885485935</v>
       </c>
       <c r="E7">
-        <v>14.92120248101157</v>
+        <v>26.81899338502315</v>
       </c>
       <c r="F7">
-        <v>32.81457288765623</v>
+        <v>37.79454147052954</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.5432969673107</v>
+        <v>11.96483506583795</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.75422260181159</v>
+        <v>30.13709005629713</v>
       </c>
       <c r="C8">
-        <v>12.76426290818101</v>
+        <v>23.54991832851243</v>
       </c>
       <c r="D8">
-        <v>5.413948140114115</v>
+        <v>4.097272775812902</v>
       </c>
       <c r="E8">
-        <v>16.14664389643332</v>
+        <v>29.95607716918794</v>
       </c>
       <c r="F8">
-        <v>33.66906042346503</v>
+        <v>41.30685843939775</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.4636741721765</v>
+        <v>11.65666678052072</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69019709301865</v>
+        <v>35.64511806468833</v>
       </c>
       <c r="C9">
-        <v>14.58935103793376</v>
+        <v>27.85762070289546</v>
       </c>
       <c r="D9">
-        <v>5.399302330710603</v>
+        <v>4.307654353920396</v>
       </c>
       <c r="E9">
-        <v>18.43677942462618</v>
+        <v>35.80544138111969</v>
       </c>
       <c r="F9">
-        <v>35.3851708306037</v>
+        <v>48.32446074833284</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.32331052248272</v>
+        <v>11.09936377627978</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.03211809840238</v>
+        <v>39.49246324539004</v>
       </c>
       <c r="C10">
-        <v>15.83207327609944</v>
+        <v>30.88041477763297</v>
       </c>
       <c r="D10">
-        <v>5.396039689456074</v>
+        <v>4.533301650487457</v>
       </c>
       <c r="E10">
-        <v>20.1034978793817</v>
+        <v>40.02549327901439</v>
       </c>
       <c r="F10">
-        <v>36.65709078807711</v>
+        <v>53.59915494593501</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.22986056205369</v>
+        <v>10.72850366607478</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.62258163076735</v>
+        <v>41.21788814098611</v>
       </c>
       <c r="C11">
-        <v>16.39552342057327</v>
+        <v>32.24077606262664</v>
       </c>
       <c r="D11">
-        <v>5.396238391367107</v>
+        <v>4.750982842790864</v>
       </c>
       <c r="E11">
-        <v>20.82061698643642</v>
+        <v>41.96225208747515</v>
       </c>
       <c r="F11">
-        <v>37.23536968867223</v>
+        <v>56.00957835476722</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.18946244811672</v>
+        <v>10.57167147234233</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.8431290553124</v>
+        <v>41.86979625916004</v>
       </c>
       <c r="C12">
-        <v>16.60418592823392</v>
+        <v>32.75562308965597</v>
       </c>
       <c r="D12">
-        <v>5.396559966279663</v>
+        <v>4.848173292346559</v>
       </c>
       <c r="E12">
-        <v>21.08630846517839</v>
+        <v>42.70207851768173</v>
       </c>
       <c r="F12">
-        <v>37.45408400282794</v>
+        <v>56.92722483775046</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.17446992867203</v>
+        <v>10.51442652005848</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.79576830045271</v>
+        <v>41.72942171520004</v>
       </c>
       <c r="C13">
-        <v>16.55945556941721</v>
+        <v>32.64471950817918</v>
       </c>
       <c r="D13">
-        <v>5.39647968589023</v>
+        <v>4.827151003529536</v>
       </c>
       <c r="E13">
-        <v>21.02934728594566</v>
+        <v>42.5423806635953</v>
       </c>
       <c r="F13">
-        <v>37.40699525175848</v>
+        <v>56.72931208791746</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.17768522870712</v>
+        <v>10.52665125419459</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.64078820047841</v>
+        <v>41.27153636773419</v>
       </c>
       <c r="C14">
-        <v>16.41278435378999</v>
+        <v>32.28312627359742</v>
       </c>
       <c r="D14">
-        <v>5.396259886268408</v>
+        <v>4.758939016779639</v>
       </c>
       <c r="E14">
-        <v>20.84259291084896</v>
+        <v>42.02296199161986</v>
       </c>
       <c r="F14">
-        <v>37.25337003105781</v>
+        <v>56.08495322521743</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.18822287521207</v>
+        <v>10.5669158730532</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.54545669807582</v>
+        <v>40.99094891539234</v>
       </c>
       <c r="C15">
-        <v>16.32233208624714</v>
+        <v>32.06166534756297</v>
       </c>
       <c r="D15">
-        <v>5.396157458915321</v>
+        <v>4.717409949137282</v>
       </c>
       <c r="E15">
-        <v>20.7274377651631</v>
+        <v>41.70577878096081</v>
       </c>
       <c r="F15">
-        <v>37.15922896241352</v>
+        <v>55.69101567136902</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.19471730391493</v>
+        <v>10.59187389226244</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.9931122596022</v>
+        <v>39.37936975165769</v>
       </c>
       <c r="C16">
-        <v>15.79459104202971</v>
+        <v>30.79135996759421</v>
       </c>
       <c r="D16">
-        <v>5.396060940770883</v>
+        <v>4.5256939478224</v>
       </c>
       <c r="E16">
-        <v>20.05580935891375</v>
+        <v>39.89957560244351</v>
       </c>
       <c r="F16">
-        <v>36.61927326808261</v>
+        <v>53.44210661108895</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.23254331881922</v>
+        <v>10.73902595396963</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.64901578703598</v>
+        <v>38.38568776499605</v>
       </c>
       <c r="C17">
-        <v>15.46480566260421</v>
+        <v>30.00944053695507</v>
       </c>
       <c r="D17">
-        <v>5.396435876056854</v>
+        <v>4.46142244590194</v>
       </c>
       <c r="E17">
-        <v>19.63329498098246</v>
+        <v>38.79834502338168</v>
       </c>
       <c r="F17">
-        <v>36.28778456046521</v>
+        <v>52.06730821056257</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.25629055856476</v>
+        <v>10.83260664006623</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.44922834138448</v>
+        <v>37.81166532567911</v>
       </c>
       <c r="C18">
-        <v>15.2836530714565</v>
+        <v>29.55818115837441</v>
       </c>
       <c r="D18">
-        <v>5.396809678362816</v>
+        <v>4.426383074819118</v>
       </c>
       <c r="E18">
-        <v>19.38640682776752</v>
+        <v>38.16625362852604</v>
       </c>
       <c r="F18">
-        <v>36.09710311631636</v>
+        <v>51.27734125333602</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.27014810529746</v>
+        <v>10.88751609079232</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.38126794783762</v>
+        <v>37.61683033723016</v>
       </c>
       <c r="C19">
-        <v>15.22188702843998</v>
+        <v>29.40508394806553</v>
       </c>
       <c r="D19">
-        <v>5.39696326990292</v>
+        <v>4.414834672586339</v>
       </c>
       <c r="E19">
-        <v>19.30214897137628</v>
+        <v>37.95236128380685</v>
       </c>
       <c r="F19">
-        <v>36.0325454808209</v>
+        <v>51.00992196938164</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.27487412402039</v>
+        <v>10.90628272142595</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.68584056545765</v>
+        <v>38.49171060654589</v>
       </c>
       <c r="C20">
-        <v>15.49812785968368</v>
+        <v>30.09282293162309</v>
       </c>
       <c r="D20">
-        <v>5.396379563967623</v>
+        <v>4.468060891431641</v>
       </c>
       <c r="E20">
-        <v>19.67867249184244</v>
+        <v>38.91541276053035</v>
       </c>
       <c r="F20">
-        <v>36.32307558604352</v>
+        <v>52.21355644643705</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.25374204219344</v>
+        <v>10.8225298956242</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.68639360547148</v>
+        <v>41.40604865158195</v>
       </c>
       <c r="C21">
-        <v>16.45599272683964</v>
+        <v>32.38932561538966</v>
       </c>
       <c r="D21">
-        <v>5.396317727404059</v>
+        <v>4.778920563482076</v>
       </c>
       <c r="E21">
-        <v>20.89760607006963</v>
+        <v>42.17531547735703</v>
       </c>
       <c r="F21">
-        <v>37.29850244377744</v>
+        <v>56.27405306066342</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.18511941245413</v>
+        <v>10.55502674051769</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.32248186787035</v>
+        <v>43.30362194841131</v>
       </c>
       <c r="C22">
-        <v>17.05461411943589</v>
+        <v>33.88981283707424</v>
       </c>
       <c r="D22">
-        <v>5.397715049526521</v>
+        <v>5.065922138699158</v>
       </c>
       <c r="E22">
-        <v>21.66007742077278</v>
+        <v>44.34617601160615</v>
       </c>
       <c r="F22">
-        <v>37.93434744083881</v>
+        <v>58.95863228266604</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.14205127403829</v>
+        <v>10.39302164979057</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.98467222003882</v>
+        <v>42.29063745891838</v>
       </c>
       <c r="C23">
-        <v>16.73761883403753</v>
+        <v>33.08825284238341</v>
       </c>
       <c r="D23">
-        <v>5.396836316537512</v>
+        <v>4.91151116659575</v>
       </c>
       <c r="E23">
-        <v>21.25624525779039</v>
+        <v>43.18217032773111</v>
       </c>
       <c r="F23">
-        <v>37.59520630896871</v>
+        <v>57.52160239715703</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.16487407481469</v>
+        <v>10.47812561429668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.66919818016649</v>
+        <v>38.44378636743031</v>
       </c>
       <c r="C24">
-        <v>15.48307098709758</v>
+        <v>30.05513124908417</v>
       </c>
       <c r="D24">
-        <v>5.396404530088661</v>
+        <v>4.465053739899207</v>
       </c>
       <c r="E24">
-        <v>19.65816971602738</v>
+        <v>38.86248353755462</v>
       </c>
       <c r="F24">
-        <v>36.3071208209746</v>
+        <v>52.147436534893</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.25489358821267</v>
+        <v>10.82708216925999</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.17962238864113</v>
+        <v>34.19524153789094</v>
       </c>
       <c r="C25">
-        <v>14.1163163754722</v>
+        <v>26.72171157539385</v>
       </c>
       <c r="D25">
-        <v>5.401966546699272</v>
+        <v>4.23985958983791</v>
       </c>
       <c r="E25">
-        <v>17.78629376902386</v>
+        <v>34.24587849566004</v>
       </c>
       <c r="F25">
-        <v>34.91800615943511</v>
+        <v>46.37477848998938</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.35958798893854</v>
+        <v>11.24426411762605</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,988 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.92638674372003</v>
+        <v>14.93300952256415</v>
       </c>
       <c r="C2">
-        <v>24.16604616856666</v>
+        <v>12.10971627721612</v>
       </c>
       <c r="D2">
-        <v>4.119762527198949</v>
+        <v>4.842502058955624</v>
       </c>
       <c r="E2">
-        <v>30.78243789255325</v>
+        <v>28.06991644935184</v>
       </c>
       <c r="F2">
-        <v>42.24959456308241</v>
+        <v>30.41487504627329</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.342247642457122</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.767271368613614</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.75234963584495</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.24728791274036</v>
       </c>
       <c r="N2">
-        <v>11.57608553292111</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>14.27845861382691</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.60340085304424</v>
+        <v>13.93495719106117</v>
       </c>
       <c r="C3">
-        <v>22.35362873094127</v>
+        <v>11.26316146297112</v>
       </c>
       <c r="D3">
-        <v>4.060446711155087</v>
+        <v>4.823551102658576</v>
       </c>
       <c r="E3">
-        <v>28.36036910608619</v>
+        <v>26.1539326393555</v>
       </c>
       <c r="F3">
-        <v>39.50576099286724</v>
+        <v>29.28042187641958</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.065335089239178</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.990687702958657</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.31923254234811</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.29360971133869</v>
       </c>
       <c r="N3">
-        <v>11.81313934937774</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>14.34992763340415</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.11882095887156</v>
+        <v>13.31348717493071</v>
       </c>
       <c r="C4">
-        <v>21.19666097027789</v>
+        <v>10.71804922381323</v>
       </c>
       <c r="D4">
-        <v>4.033103614239541</v>
+        <v>4.810279792408134</v>
       </c>
       <c r="E4">
-        <v>26.82753490645198</v>
+        <v>24.9107154321494</v>
       </c>
       <c r="F4">
-        <v>37.80393676872914</v>
+        <v>28.5686792230256</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.889761166003063</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.132893277131957</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.05022369737811</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.6737101190656</v>
       </c>
       <c r="N4">
-        <v>11.96399407076821</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>14.39415221275879</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.49853973923538</v>
+        <v>13.04458275284855</v>
       </c>
       <c r="C5">
-        <v>20.71351994421912</v>
+        <v>10.49613241328247</v>
       </c>
       <c r="D5">
-        <v>4.02399928383089</v>
+        <v>4.804236841992445</v>
       </c>
       <c r="E5">
-        <v>26.19031398175018</v>
+        <v>24.38687773436037</v>
       </c>
       <c r="F5">
-        <v>37.10592810434793</v>
+        <v>28.25975382295452</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.816529255474135</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.195137135581865</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.92817736253956</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.41001260069053</v>
       </c>
       <c r="N5">
-        <v>12.02672299307582</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>14.40870763968586</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.39460077003933</v>
+        <v>12.99072425033873</v>
       </c>
       <c r="C6">
-        <v>20.63257478449674</v>
+        <v>10.46701361877452</v>
       </c>
       <c r="D6">
-        <v>4.022603861503135</v>
+        <v>4.80293973276039</v>
       </c>
       <c r="E6">
-        <v>26.08371517075135</v>
+        <v>24.29850354788186</v>
       </c>
       <c r="F6">
-        <v>36.98975184428126</v>
+        <v>28.18942765863968</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.803968649281781</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.209409286733114</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.89353450762103</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.362767324372</v>
       </c>
       <c r="N6">
-        <v>12.03721290925381</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>14.40679897547957</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.11051839215662</v>
+        <v>13.28669580815761</v>
       </c>
       <c r="C7">
-        <v>21.19019310208885</v>
+        <v>10.73667477867531</v>
       </c>
       <c r="D7">
-        <v>4.032972885485935</v>
+        <v>4.809493056249163</v>
       </c>
       <c r="E7">
-        <v>26.81899338502315</v>
+        <v>24.90272453950944</v>
       </c>
       <c r="F7">
-        <v>37.79454147052954</v>
+        <v>28.51375477643053</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.887933037444517</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.144006828536688</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.00968872620241</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.66236215895524</v>
       </c>
       <c r="N7">
-        <v>11.96483506583795</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>14.38256294065386</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.13709005629713</v>
+        <v>14.56266128381607</v>
       </c>
       <c r="C8">
-        <v>23.54991832851243</v>
+        <v>11.849206767573</v>
       </c>
       <c r="D8">
-        <v>4.097272775812902</v>
+        <v>4.835516577776582</v>
       </c>
       <c r="E8">
-        <v>29.95607716918794</v>
+        <v>27.42177749596442</v>
       </c>
       <c r="F8">
-        <v>41.30685843939775</v>
+        <v>29.96286923242436</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.246820887286617</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.85671680450802</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.55353438724374</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.9159562829413</v>
       </c>
       <c r="N8">
-        <v>11.65666678052072</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>14.28762111748078</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.64511806468833</v>
+        <v>16.90902729310492</v>
       </c>
       <c r="C9">
-        <v>27.85762070289546</v>
+        <v>13.79858166003437</v>
       </c>
       <c r="D9">
-        <v>4.307654353920396</v>
+        <v>4.874443573193099</v>
       </c>
       <c r="E9">
-        <v>35.80544138111969</v>
+        <v>31.8389921172679</v>
       </c>
       <c r="F9">
-        <v>48.32446074833284</v>
+        <v>32.75710426914021</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.909542101009858</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.636595097849649</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.65989881081423</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.11680520245854</v>
       </c>
       <c r="N9">
-        <v>11.09936377627978</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>14.12522474521029</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.49246324539004</v>
+        <v>18.38589281473471</v>
       </c>
       <c r="C10">
-        <v>30.88041477763297</v>
+        <v>15.0255373145733</v>
       </c>
       <c r="D10">
-        <v>4.533301650487457</v>
+        <v>4.897810969131649</v>
       </c>
       <c r="E10">
-        <v>40.02549327901439</v>
+        <v>33.88948542320568</v>
       </c>
       <c r="F10">
-        <v>53.59915494593501</v>
+        <v>34.45512483459324</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3.334708003296078</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.992640271717204</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.28725655469489</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.50331805133106</v>
       </c>
       <c r="N10">
-        <v>10.72850366607478</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.95225184562908</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.21788814098611</v>
+        <v>18.54371333128154</v>
       </c>
       <c r="C11">
-        <v>32.24077606262664</v>
+        <v>14.76617567492343</v>
       </c>
       <c r="D11">
-        <v>4.750982842790864</v>
+        <v>4.969111207748427</v>
       </c>
       <c r="E11">
-        <v>41.96225208747515</v>
+        <v>27.24462556055325</v>
       </c>
       <c r="F11">
-        <v>56.00957835476722</v>
+        <v>33.08630357180249</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.806380244140365</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.057869891587906</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.24392026267364</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.52799572865188</v>
       </c>
       <c r="N11">
-        <v>10.57167147234233</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>13.44220918425476</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.86979625916004</v>
+        <v>18.40540148641191</v>
       </c>
       <c r="C12">
-        <v>32.75562308965597</v>
+        <v>14.27567186301815</v>
       </c>
       <c r="D12">
-        <v>4.848173292346559</v>
+        <v>5.065782604626007</v>
       </c>
       <c r="E12">
-        <v>42.70207851768173</v>
+        <v>21.19793940376475</v>
       </c>
       <c r="F12">
-        <v>56.92722483775046</v>
+        <v>31.62351161722669</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.754157527346029</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.04440331093458</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.28235217753059</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.27907274795585</v>
       </c>
       <c r="N12">
-        <v>10.51442652005848</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.09368299127061</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.72942171520004</v>
+        <v>18.00088600297125</v>
       </c>
       <c r="C13">
-        <v>32.64471950817918</v>
+        <v>13.58669955541772</v>
       </c>
       <c r="D13">
-        <v>4.827151003529536</v>
+        <v>5.181393748815319</v>
       </c>
       <c r="E13">
-        <v>42.5423806635953</v>
+        <v>15.06979502666459</v>
       </c>
       <c r="F13">
-        <v>56.72931208791746</v>
+        <v>29.89953783591957</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.887025214712609</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.973429943873816</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.26076632029162</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>16.78880845600582</v>
       </c>
       <c r="N13">
-        <v>10.52665125419459</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.83305595094912</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.27153636773419</v>
+        <v>17.58730828248335</v>
       </c>
       <c r="C14">
-        <v>32.28312627359742</v>
+        <v>13.01126115298918</v>
       </c>
       <c r="D14">
-        <v>4.758939016779639</v>
+        <v>5.273694380524482</v>
       </c>
       <c r="E14">
-        <v>42.02296199161986</v>
+        <v>10.70534823214414</v>
       </c>
       <c r="F14">
-        <v>56.08495322521743</v>
+        <v>28.54722979727029</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.747322706862933</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.899995118881186</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.50853133164255</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>16.3293062598821</v>
       </c>
       <c r="N14">
-        <v>10.5669158730532</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.69397059008714</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.99094891539234</v>
+        <v>17.42055418289518</v>
       </c>
       <c r="C15">
-        <v>32.06166534756297</v>
+        <v>12.83132071451006</v>
       </c>
       <c r="D15">
-        <v>4.717409949137282</v>
+        <v>5.296023316188804</v>
       </c>
       <c r="E15">
-        <v>41.70577878096081</v>
+        <v>9.616919729945723</v>
       </c>
       <c r="F15">
-        <v>55.69101567136902</v>
+        <v>28.1450042076783</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.944166858769544</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.870090495767251</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.30065579307324</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>16.16083210178979</v>
       </c>
       <c r="N15">
-        <v>10.59187389226244</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.67282587517714</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.37936975165769</v>
+        <v>16.85695542045723</v>
       </c>
       <c r="C16">
-        <v>30.79135996759421</v>
+        <v>12.4185599060734</v>
       </c>
       <c r="D16">
-        <v>4.5256939478224</v>
+        <v>5.256385862956577</v>
       </c>
       <c r="E16">
-        <v>39.89957560244351</v>
+        <v>9.462956622092559</v>
       </c>
       <c r="F16">
-        <v>53.44210661108895</v>
+        <v>27.66210453439869</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.6623531833722</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.73746060265527</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.19641960445705</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.65155556626137</v>
       </c>
       <c r="N16">
-        <v>10.73902595396963</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.79575850961812</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.38568776499605</v>
+        <v>16.64526752219426</v>
       </c>
       <c r="C17">
-        <v>30.00944053695507</v>
+        <v>12.41935182883945</v>
       </c>
       <c r="D17">
-        <v>4.46142244590194</v>
+        <v>5.174817505876923</v>
       </c>
       <c r="E17">
-        <v>38.79834502338168</v>
+        <v>11.77727010961742</v>
       </c>
       <c r="F17">
-        <v>52.06730821056257</v>
+        <v>28.0323648288923</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.935236417634601</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.67379003974982</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.51945230793138</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>15.50869257240566</v>
       </c>
       <c r="N17">
-        <v>10.83260664006623</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.96019080208528</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.81166532567911</v>
+        <v>16.73919251438939</v>
       </c>
       <c r="C18">
-        <v>29.55818115837441</v>
+        <v>12.77385310058763</v>
       </c>
       <c r="D18">
-        <v>4.426383074819118</v>
+        <v>5.062197250034757</v>
       </c>
       <c r="E18">
-        <v>38.16625362852604</v>
+        <v>16.60506869886102</v>
       </c>
       <c r="F18">
-        <v>51.27734125333602</v>
+        <v>29.2140600491498</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.807698074088697</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.66302543986186</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.2792567474949</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.6818952071568</v>
       </c>
       <c r="N18">
-        <v>10.88751609079232</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.20264847511891</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.61683033723016</v>
+        <v>17.04003756061643</v>
       </c>
       <c r="C19">
-        <v>29.40508394806553</v>
+        <v>13.41904484856198</v>
       </c>
       <c r="D19">
-        <v>4.414834672586339</v>
+        <v>4.963314500448056</v>
       </c>
       <c r="E19">
-        <v>37.95236128380685</v>
+        <v>23.0566559432797</v>
       </c>
       <c r="F19">
-        <v>51.00992196938164</v>
+        <v>30.86748399943469</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.669170992354633</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.711187414315027</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.27930010033528</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.08783421773879</v>
       </c>
       <c r="N19">
-        <v>10.90628272142595</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.50031732032496</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.49171060654589</v>
+        <v>17.95221514348965</v>
       </c>
       <c r="C20">
-        <v>30.09282293162309</v>
+        <v>14.75640653501981</v>
       </c>
       <c r="D20">
-        <v>4.468060891431641</v>
+        <v>4.891481925311574</v>
       </c>
       <c r="E20">
-        <v>38.91541276053035</v>
+        <v>33.32005837804109</v>
       </c>
       <c r="F20">
-        <v>52.21355644643705</v>
+        <v>33.86995218639614</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3.219498562978236</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.907822774498972</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.00733738920859</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.12725930161655</v>
       </c>
       <c r="N20">
-        <v>10.8225298956242</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.96016741491388</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.40604865158195</v>
+        <v>19.12543306124329</v>
       </c>
       <c r="C21">
-        <v>32.38932561538966</v>
+        <v>15.79853386515016</v>
       </c>
       <c r="D21">
-        <v>4.778920563482076</v>
+        <v>4.902135502167482</v>
       </c>
       <c r="E21">
-        <v>42.17531547735703</v>
+        <v>36.17482818394425</v>
       </c>
       <c r="F21">
-        <v>56.27405306066342</v>
+        <v>35.54570842342048</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3.598948402536538</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.193355406584681</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.73711088141619</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.25000804550371</v>
       </c>
       <c r="N21">
-        <v>10.55502674051769</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.91399560408378</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.30362194841131</v>
+        <v>19.8533490779039</v>
       </c>
       <c r="C22">
-        <v>33.88981283707424</v>
+        <v>16.39097195041752</v>
       </c>
       <c r="D22">
-        <v>5.065922138699158</v>
+        <v>4.90954292211163</v>
       </c>
       <c r="E22">
-        <v>44.34617601160615</v>
+        <v>37.53047738499505</v>
       </c>
       <c r="F22">
-        <v>58.95863228266604</v>
+        <v>36.55008514229596</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.824399608493697</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.36945390588435</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.17751413599532</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.92863323323644</v>
       </c>
       <c r="N22">
-        <v>10.39302164979057</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>13.87354502775879</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.29063745891838</v>
+        <v>19.48744523596053</v>
       </c>
       <c r="C23">
-        <v>33.08825284238341</v>
+        <v>16.05875914232397</v>
       </c>
       <c r="D23">
-        <v>4.91151116659575</v>
+        <v>4.906052020514908</v>
       </c>
       <c r="E23">
-        <v>43.18217032773111</v>
+        <v>36.81300169871467</v>
       </c>
       <c r="F23">
-        <v>57.52160239715703</v>
+        <v>36.06427030227395</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.705257044814936</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.272804795137332</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.98317817285439</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.57580992160526</v>
       </c>
       <c r="N23">
-        <v>10.47812561429668</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.90840549525672</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.44378636743031</v>
+        <v>18.00702934946122</v>
       </c>
       <c r="C24">
-        <v>30.05513124908417</v>
+        <v>14.78733006665182</v>
       </c>
       <c r="D24">
-        <v>4.465053739899207</v>
+        <v>4.889199509037288</v>
       </c>
       <c r="E24">
-        <v>38.86248353755462</v>
+        <v>33.98520091711297</v>
       </c>
       <c r="F24">
-        <v>52.147436534893</v>
+        <v>34.11134060232892</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3.245600642232291</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.906984438375736</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.17679234453962</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.17289769117027</v>
       </c>
       <c r="N24">
-        <v>10.82708216925999</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>14.02119444011895</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.19524153789094</v>
+        <v>16.27249329347245</v>
       </c>
       <c r="C25">
-        <v>26.72171157539385</v>
+        <v>13.32398401226897</v>
       </c>
       <c r="D25">
-        <v>4.23985958983791</v>
+        <v>4.864529146251003</v>
       </c>
       <c r="E25">
-        <v>34.24587849566004</v>
+        <v>30.69758882939011</v>
       </c>
       <c r="F25">
-        <v>46.37477848998938</v>
+        <v>31.93479187092422</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.733172744063499</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.504097440916864</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.29799340453173</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.53804656210706</v>
       </c>
       <c r="N25">
-        <v>11.24426411762605</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.14804676309618</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.93300952256415</v>
+        <v>14.17355751214019</v>
       </c>
       <c r="C2">
-        <v>12.10971627721612</v>
+        <v>12.86121213187692</v>
       </c>
       <c r="D2">
-        <v>4.842502058955624</v>
+        <v>4.737372990064317</v>
       </c>
       <c r="E2">
-        <v>28.06991644935184</v>
+        <v>28.13006988162485</v>
       </c>
       <c r="F2">
-        <v>30.41487504627329</v>
+        <v>28.24427537062718</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.342247642457122</v>
+        <v>2.391461169863837</v>
       </c>
       <c r="I2">
-        <v>2.767271368613614</v>
+        <v>2.63729480752513</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>20.75234963584495</v>
+        <v>18.90589708115751</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.61458369151779</v>
       </c>
       <c r="M2">
-        <v>14.24728791274036</v>
+        <v>12.54709413862539</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.02016255620529</v>
       </c>
       <c r="P2">
-        <v>14.27845861382691</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.6620596381097</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.93495719106117</v>
+        <v>13.25440246233255</v>
       </c>
       <c r="C3">
-        <v>11.26316146297112</v>
+        <v>11.93196483815107</v>
       </c>
       <c r="D3">
-        <v>4.823551102658576</v>
+        <v>4.703159855594467</v>
       </c>
       <c r="E3">
-        <v>26.1539326393555</v>
+        <v>26.22641328811397</v>
       </c>
       <c r="F3">
-        <v>29.28042187641958</v>
+        <v>27.31861224145639</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.065335089239178</v>
+        <v>2.125506276705679</v>
       </c>
       <c r="I3">
-        <v>2.990687702958657</v>
+        <v>2.832260130682428</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>20.31923254234811</v>
+        <v>18.64072650931887</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.56017060340372</v>
       </c>
       <c r="M3">
-        <v>13.29360971133869</v>
+        <v>12.19217271852718</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.10289077628342</v>
       </c>
       <c r="P3">
-        <v>14.34992763340415</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.78171272683296</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.31348717493071</v>
+        <v>12.65383788369578</v>
       </c>
       <c r="C4">
-        <v>10.71804922381323</v>
+        <v>11.33302738079329</v>
       </c>
       <c r="D4">
-        <v>4.810279792408134</v>
+        <v>4.680838365310589</v>
       </c>
       <c r="E4">
-        <v>24.9107154321494</v>
+        <v>24.99071703662717</v>
       </c>
       <c r="F4">
-        <v>28.5686792230256</v>
+        <v>26.73890709794088</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.889761166003063</v>
+        <v>1.956754681539127</v>
       </c>
       <c r="I4">
-        <v>3.132893277131957</v>
+        <v>2.956822597058139</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>20.05022369737811</v>
+        <v>18.4758945663344</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.52067748386652</v>
       </c>
       <c r="M4">
-        <v>12.6737101190656</v>
+        <v>11.98914659073145</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.50649928817847</v>
       </c>
       <c r="P4">
-        <v>14.39415221275879</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.85539484075538</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.04458275284855</v>
+        <v>12.3933621775689</v>
       </c>
       <c r="C5">
-        <v>10.49613241328247</v>
+        <v>11.08810171670792</v>
       </c>
       <c r="D5">
-        <v>4.804236841992445</v>
+        <v>4.671608371087464</v>
       </c>
       <c r="E5">
-        <v>24.38687773436037</v>
+        <v>24.46996058426819</v>
       </c>
       <c r="F5">
-        <v>28.25975382295452</v>
+        <v>26.48575196304673</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.816529255474135</v>
+        <v>1.886349892240204</v>
       </c>
       <c r="I5">
-        <v>3.195137135581865</v>
+        <v>3.01230860334471</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>19.92817736253956</v>
+        <v>18.3977114032048</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.49433863771473</v>
       </c>
       <c r="M5">
-        <v>12.41001260069053</v>
+        <v>11.90318297090586</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.25284023273106</v>
       </c>
       <c r="P5">
-        <v>14.40870763968586</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.88263783144862</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.99072425033873</v>
+        <v>12.34150883621488</v>
       </c>
       <c r="C6">
-        <v>10.46701361877452</v>
+        <v>11.05473229590901</v>
       </c>
       <c r="D6">
-        <v>4.80293973276039</v>
+        <v>4.670303597961754</v>
       </c>
       <c r="E6">
-        <v>24.29850354788186</v>
+        <v>24.38211552677426</v>
       </c>
       <c r="F6">
-        <v>28.18942765863968</v>
+        <v>26.42608452747208</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.803968649281781</v>
+        <v>1.87428478604647</v>
       </c>
       <c r="I6">
-        <v>3.209409286733114</v>
+        <v>3.026094551215594</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>19.89353450762103</v>
+        <v>18.371844495462</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.4792506089779</v>
       </c>
       <c r="M6">
-        <v>12.362767324372</v>
+        <v>11.88028302459797</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.20747214655694</v>
       </c>
       <c r="P6">
-        <v>14.40679897547957</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.88369709787538</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.28669580815761</v>
+        <v>12.62891473451791</v>
       </c>
       <c r="C7">
-        <v>10.73667477867531</v>
+        <v>11.35032008047385</v>
       </c>
       <c r="D7">
-        <v>4.809493056249163</v>
+        <v>4.681445493400991</v>
       </c>
       <c r="E7">
-        <v>24.90272453950944</v>
+        <v>24.98281788875095</v>
       </c>
       <c r="F7">
-        <v>28.51375477643053</v>
+        <v>26.68837100435765</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.887933037444517</v>
+        <v>1.955031594187369</v>
       </c>
       <c r="I7">
-        <v>3.144006828536688</v>
+        <v>2.969525032558945</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>20.00968872620241</v>
+        <v>18.43998953463297</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.49189740765483</v>
       </c>
       <c r="M7">
-        <v>12.66236215895524</v>
+        <v>11.96345114706767</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.49579720321693</v>
       </c>
       <c r="P7">
-        <v>14.38256294065386</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.84636880361739</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.56266128381607</v>
+        <v>13.83792921190994</v>
       </c>
       <c r="C8">
-        <v>11.849206767573</v>
+        <v>12.57156907702674</v>
       </c>
       <c r="D8">
-        <v>4.835516577776582</v>
+        <v>4.7270594015212</v>
       </c>
       <c r="E8">
-        <v>27.42177749596442</v>
+        <v>27.48628413409606</v>
       </c>
       <c r="F8">
-        <v>29.96286923242436</v>
+        <v>27.86798773369173</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.246820887286617</v>
+        <v>2.299886769352383</v>
       </c>
       <c r="I8">
-        <v>2.85671680450802</v>
+        <v>2.719150871368275</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>20.55353438724374</v>
+        <v>18.7699736318908</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.56184235594533</v>
       </c>
       <c r="M8">
-        <v>13.9159562829413</v>
+        <v>12.38854786380493</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.70178068579048</v>
       </c>
       <c r="P8">
-        <v>14.28762111748078</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.6911871619577</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.90902729310492</v>
+        <v>15.95822803337504</v>
       </c>
       <c r="C9">
-        <v>13.79858166003437</v>
+        <v>14.711340480736</v>
       </c>
       <c r="D9">
-        <v>4.874443573193099</v>
+        <v>4.804289720066861</v>
       </c>
       <c r="E9">
-        <v>31.8389921172679</v>
+        <v>31.8718028766161</v>
       </c>
       <c r="F9">
-        <v>32.75710426914021</v>
+        <v>30.16189537002368</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.909542101009858</v>
+        <v>2.935546020511214</v>
       </c>
       <c r="I9">
-        <v>2.636595097849649</v>
+        <v>2.711505849823893</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>21.65989881081423</v>
+        <v>19.46098663556257</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.69804817616142</v>
       </c>
       <c r="M9">
-        <v>16.11680520245854</v>
+        <v>13.37339333656655</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.81711365774004</v>
       </c>
       <c r="P9">
-        <v>14.12522474521029</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.4045099288278</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.38589281473471</v>
+        <v>17.29642152310718</v>
       </c>
       <c r="C10">
-        <v>15.0255373145733</v>
+        <v>16.05180344273758</v>
       </c>
       <c r="D10">
-        <v>4.897810969131649</v>
+        <v>4.867195439528614</v>
       </c>
       <c r="E10">
-        <v>33.88948542320568</v>
+        <v>33.8986175254518</v>
       </c>
       <c r="F10">
-        <v>34.45512483459324</v>
+        <v>31.548109150839</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.334708003296078</v>
+        <v>3.341746093867828</v>
       </c>
       <c r="I10">
-        <v>2.992640271717204</v>
+        <v>3.023430463581155</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>22.28725655469489</v>
+        <v>19.82326631945116</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.67091314119589</v>
       </c>
       <c r="M10">
-        <v>17.50331805133106</v>
+        <v>14.03770905016322</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.14989207514524</v>
       </c>
       <c r="P10">
-        <v>13.95225184562908</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.15626553299852</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.54371333128154</v>
+        <v>17.49525363168038</v>
       </c>
       <c r="C11">
-        <v>14.76617567492343</v>
+        <v>15.74707863834031</v>
       </c>
       <c r="D11">
-        <v>4.969111207748427</v>
+        <v>5.028714052480718</v>
       </c>
       <c r="E11">
-        <v>27.24462556055325</v>
+        <v>27.25139708307059</v>
       </c>
       <c r="F11">
-        <v>33.08630357180249</v>
+        <v>30.29923004251504</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.806380244140365</v>
+        <v>3.810653184478769</v>
       </c>
       <c r="I11">
-        <v>3.057869891587906</v>
+        <v>3.085135945310717</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>21.24392026267364</v>
+        <v>18.9099950509745</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.87539837206261</v>
       </c>
       <c r="M11">
-        <v>17.52799572865188</v>
+        <v>13.48762997943007</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.18780703290456</v>
       </c>
       <c r="P11">
-        <v>13.44220918425476</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.75882919415222</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.40540148641191</v>
+        <v>17.41828253505853</v>
       </c>
       <c r="C12">
-        <v>14.27567186301815</v>
+        <v>15.19529746125724</v>
       </c>
       <c r="D12">
-        <v>5.065782604626007</v>
+        <v>5.180266676830966</v>
       </c>
       <c r="E12">
-        <v>21.19793940376475</v>
+        <v>21.2075085211426</v>
       </c>
       <c r="F12">
-        <v>31.62351161722669</v>
+        <v>28.99848197465118</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.754157527346029</v>
+        <v>4.758532956874831</v>
       </c>
       <c r="I12">
-        <v>3.04440331093458</v>
+        <v>3.074913276132699</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>20.28235217753059</v>
+        <v>18.11024149135988</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.25783210236452</v>
       </c>
       <c r="M12">
-        <v>17.27907274795585</v>
+        <v>12.90872187000729</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.96041781810856</v>
       </c>
       <c r="P12">
-        <v>13.09368299127061</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.51517955127374</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.00088600297125</v>
+        <v>17.09817107752141</v>
       </c>
       <c r="C13">
-        <v>13.58669955541772</v>
+        <v>14.425387945854</v>
       </c>
       <c r="D13">
-        <v>5.181393748815319</v>
+        <v>5.328968765841216</v>
       </c>
       <c r="E13">
-        <v>15.06979502666459</v>
+        <v>15.0878823775925</v>
       </c>
       <c r="F13">
-        <v>29.89953783591957</v>
+        <v>27.48773247186546</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.887025214712609</v>
+        <v>5.892653956233239</v>
       </c>
       <c r="I13">
-        <v>2.973429943873816</v>
+        <v>3.014209105435898</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>19.26076632029162</v>
+        <v>17.29325796510081</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.69150317551452</v>
       </c>
       <c r="M13">
-        <v>16.78880845600582</v>
+        <v>12.22982240828697</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.50059084008155</v>
       </c>
       <c r="P13">
-        <v>12.83305595094912</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.36079725422244</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.58730828248335</v>
+        <v>16.75553380615046</v>
       </c>
       <c r="C14">
-        <v>13.01126115298918</v>
+        <v>13.78262101333059</v>
       </c>
       <c r="D14">
-        <v>5.273694380524482</v>
+        <v>5.433733886849279</v>
       </c>
       <c r="E14">
-        <v>10.70534823214414</v>
+        <v>10.73497301173399</v>
       </c>
       <c r="F14">
-        <v>28.54722979727029</v>
+        <v>26.31095930130328</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.747322706862933</v>
+        <v>6.7538764059734</v>
       </c>
       <c r="I14">
-        <v>2.899995118881186</v>
+        <v>2.951288699294511</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>18.50853133164255</v>
+        <v>16.70563613089134</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.30939417806952</v>
       </c>
       <c r="M14">
-        <v>16.3293062598821</v>
+        <v>11.70404568419129</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.06684256588028</v>
       </c>
       <c r="P14">
-        <v>12.69397059008714</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.29480869933738</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.42055418289518</v>
+        <v>16.6117805364985</v>
       </c>
       <c r="C15">
-        <v>12.83132071451006</v>
+        <v>13.5814719688483</v>
       </c>
       <c r="D15">
-        <v>5.296023316188804</v>
+        <v>5.456169712776945</v>
       </c>
       <c r="E15">
-        <v>9.616919729945723</v>
+        <v>9.65183119245099</v>
       </c>
       <c r="F15">
-        <v>28.1450042076783</v>
+        <v>25.96405019180442</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.944166858769544</v>
+        <v>6.951142897621196</v>
       </c>
       <c r="I15">
-        <v>2.870090495767251</v>
+        <v>2.926090074092555</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>18.30065579307324</v>
+        <v>16.5482617619768</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.2162554241337</v>
       </c>
       <c r="M15">
-        <v>16.16083210178979</v>
+        <v>11.54844926964996</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.90681982368881</v>
       </c>
       <c r="P15">
-        <v>12.67282587517714</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.29240700790524</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85695542045723</v>
+        <v>16.09573913884078</v>
       </c>
       <c r="C16">
-        <v>12.4185599060734</v>
+        <v>13.12964823891379</v>
       </c>
       <c r="D16">
-        <v>5.256385862956577</v>
+        <v>5.392147024791663</v>
       </c>
       <c r="E16">
-        <v>9.462956622092559</v>
+        <v>9.510742740107155</v>
       </c>
       <c r="F16">
-        <v>27.66210453439869</v>
+        <v>25.58293369421162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.6623531833722</v>
+        <v>6.671825639434595</v>
       </c>
       <c r="I16">
-        <v>2.73746060265527</v>
+        <v>2.810447091440318</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>18.19641960445705</v>
+        <v>16.523816922644</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.29049260110702</v>
       </c>
       <c r="M16">
-        <v>15.65155556626137</v>
+        <v>11.38447604166666</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.41606855824407</v>
       </c>
       <c r="P16">
-        <v>12.79575850961812</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.42014082234276</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.64526752219426</v>
+        <v>15.88152393438462</v>
       </c>
       <c r="C17">
-        <v>12.41935182883945</v>
+        <v>13.13816300731722</v>
       </c>
       <c r="D17">
-        <v>5.174817505876923</v>
+        <v>5.286087319546424</v>
       </c>
       <c r="E17">
-        <v>11.77727010961742</v>
+        <v>11.82412806538501</v>
       </c>
       <c r="F17">
-        <v>28.0323648288923</v>
+        <v>25.93514547192509</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.935236417634601</v>
+        <v>5.9468612569959</v>
       </c>
       <c r="I17">
-        <v>2.67379003974982</v>
+        <v>2.754483188389543</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>18.51945230793138</v>
+        <v>16.81916583794455</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.55761413166065</v>
       </c>
       <c r="M17">
-        <v>15.50869257240566</v>
+        <v>11.5385778861493</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.27331367200084</v>
       </c>
       <c r="P17">
-        <v>12.96019080208528</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.55197958117486</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.73919251438939</v>
+        <v>15.92750161684677</v>
       </c>
       <c r="C18">
-        <v>12.77385310058763</v>
+        <v>13.54274432905179</v>
       </c>
       <c r="D18">
-        <v>5.062197250034757</v>
+        <v>5.140597529614403</v>
       </c>
       <c r="E18">
-        <v>16.60506869886102</v>
+        <v>16.64463812665301</v>
       </c>
       <c r="F18">
-        <v>29.2140600491498</v>
+        <v>26.98986261448236</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.807698074088697</v>
+        <v>4.822143655997097</v>
       </c>
       <c r="I18">
-        <v>2.66302543986186</v>
+        <v>2.742501477102397</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>19.2792567474949</v>
+        <v>17.45253093477741</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.05106024519062</v>
       </c>
       <c r="M18">
-        <v>15.6818952071568</v>
+        <v>11.99686252084767</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.43005572049689</v>
       </c>
       <c r="P18">
-        <v>13.20264847511891</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.72139925724303</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.04003756061643</v>
+        <v>16.15012110821622</v>
       </c>
       <c r="C19">
-        <v>13.41904484856198</v>
+        <v>14.26536971931028</v>
       </c>
       <c r="D19">
-        <v>4.963314500448056</v>
+        <v>4.999085278994226</v>
       </c>
       <c r="E19">
-        <v>23.0566559432797</v>
+        <v>23.08841217604261</v>
       </c>
       <c r="F19">
-        <v>30.86748399943469</v>
+        <v>28.44475466298667</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.669170992354633</v>
+        <v>3.686966082609327</v>
       </c>
       <c r="I19">
-        <v>2.711187414315027</v>
+        <v>2.783941486962051</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>20.27930010033528</v>
+        <v>18.26325969815011</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.6593649850822</v>
       </c>
       <c r="M19">
-        <v>16.08783421773879</v>
+        <v>12.62240077481488</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.80820670031479</v>
       </c>
       <c r="P19">
-        <v>13.50031732032496</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.91841489952186</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.95221514348965</v>
+        <v>16.90255790811797</v>
       </c>
       <c r="C20">
-        <v>14.75640653501981</v>
+        <v>15.75076919083756</v>
       </c>
       <c r="D20">
-        <v>4.891481925311574</v>
+        <v>4.855764438379195</v>
       </c>
       <c r="E20">
-        <v>33.32005837804109</v>
+        <v>33.33586110613487</v>
       </c>
       <c r="F20">
-        <v>33.86995218639614</v>
+        <v>31.0538685970484</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.219498562978236</v>
+        <v>3.231775119066518</v>
       </c>
       <c r="I20">
-        <v>2.907822774498972</v>
+        <v>2.953854196803175</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>22.00733738920859</v>
+        <v>19.62466389006173</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.60344362638623</v>
       </c>
       <c r="M20">
-        <v>17.12725930161655</v>
+        <v>13.77898212263129</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.78916233133503</v>
       </c>
       <c r="P20">
-        <v>13.96016741491388</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.19320354271501</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.12543306124329</v>
+        <v>17.95474018941938</v>
       </c>
       <c r="C21">
-        <v>15.79853386515016</v>
+        <v>16.89274864746121</v>
       </c>
       <c r="D21">
-        <v>4.902135502167482</v>
+        <v>4.882857191525739</v>
       </c>
       <c r="E21">
-        <v>36.17482818394425</v>
+        <v>36.17015334650217</v>
       </c>
       <c r="F21">
-        <v>35.54570842342048</v>
+        <v>32.45080784936548</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.598948402536538</v>
+        <v>3.595385891435816</v>
       </c>
       <c r="I21">
-        <v>3.193355406584681</v>
+        <v>3.202521029700167</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>22.73711088141619</v>
+        <v>20.10848368201267</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.73009847929941</v>
       </c>
       <c r="M21">
-        <v>18.25000804550371</v>
+        <v>14.46268371836564</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.86502096155969</v>
       </c>
       <c r="P21">
-        <v>13.91399560408378</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.06129594009469</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.8533490779039</v>
+        <v>18.61063456718147</v>
       </c>
       <c r="C22">
-        <v>16.39097195041752</v>
+        <v>17.54295866901271</v>
       </c>
       <c r="D22">
-        <v>4.90954292211163</v>
+        <v>4.903619219462234</v>
       </c>
       <c r="E22">
-        <v>37.53047738499505</v>
+        <v>37.51225873463015</v>
       </c>
       <c r="F22">
-        <v>36.55008514229596</v>
+        <v>33.28975040586881</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.824399608493697</v>
+        <v>3.810696247805977</v>
       </c>
       <c r="I22">
-        <v>3.36945390588435</v>
+        <v>3.354065482390213</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>23.17751413599532</v>
+        <v>20.4009980942056</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.79056127570173</v>
       </c>
       <c r="M22">
-        <v>18.92863323323644</v>
+        <v>14.89719799389021</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.51534628248647</v>
       </c>
       <c r="P22">
-        <v>13.87354502775879</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.96889453393284</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.48744523596053</v>
+        <v>18.28160793588175</v>
       </c>
       <c r="C23">
-        <v>16.05875914232397</v>
+        <v>17.18106297372275</v>
       </c>
       <c r="D23">
-        <v>4.906052020514908</v>
+        <v>4.890981136103909</v>
       </c>
       <c r="E23">
-        <v>36.81300169871467</v>
+        <v>36.80194224352633</v>
       </c>
       <c r="F23">
-        <v>36.06427030227395</v>
+        <v>32.88840523908564</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.705257044814936</v>
+        <v>3.696882478882922</v>
       </c>
       <c r="I23">
-        <v>3.272804795137332</v>
+        <v>3.269077620664867</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>22.98317817285439</v>
+        <v>20.28134198841427</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.78462365936274</v>
       </c>
       <c r="M23">
-        <v>18.57580992160526</v>
+        <v>14.69390051589386</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.17710641405247</v>
       </c>
       <c r="P23">
-        <v>13.90840549525672</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.02826614736687</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.00702934946122</v>
+        <v>16.94785368258887</v>
       </c>
       <c r="C24">
-        <v>14.78733006665182</v>
+        <v>15.79022234627324</v>
       </c>
       <c r="D24">
-        <v>4.889199509037288</v>
+        <v>4.84335978276324</v>
       </c>
       <c r="E24">
-        <v>33.98520091711297</v>
+        <v>34.00037317746882</v>
       </c>
       <c r="F24">
-        <v>34.11134060232892</v>
+        <v>31.27088205474266</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.245600642232291</v>
+        <v>3.257397824725184</v>
       </c>
       <c r="I24">
-        <v>2.906984438375736</v>
+        <v>2.949940561260581</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>22.17679234453962</v>
+        <v>19.76918497405989</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.71362149075254</v>
       </c>
       <c r="M24">
-        <v>17.17289769117027</v>
+        <v>13.88791089189703</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.83142999478729</v>
       </c>
       <c r="P24">
-        <v>14.02119444011895</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.23768939571938</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27249329347245</v>
+        <v>15.38246895960903</v>
       </c>
       <c r="C25">
-        <v>13.32398401226897</v>
+        <v>14.18631698120328</v>
       </c>
       <c r="D25">
-        <v>4.864529146251003</v>
+        <v>4.786594521411794</v>
       </c>
       <c r="E25">
-        <v>30.69758882939011</v>
+        <v>30.7393144614285</v>
       </c>
       <c r="F25">
-        <v>31.93479187092422</v>
+        <v>29.47659578227592</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.733172744063499</v>
+        <v>2.766591418789509</v>
       </c>
       <c r="I25">
-        <v>2.504097440916864</v>
+        <v>2.598335662078572</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>21.29799340453173</v>
+        <v>19.21672018201548</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.62180546166081</v>
       </c>
       <c r="M25">
-        <v>15.53804656210706</v>
+        <v>13.05168893962309</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.26141785501986</v>
       </c>
       <c r="P25">
-        <v>14.14804676309618</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.4659744869178</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
